--- a/output/item/음향기기/2022-01-12_음향기기.xlsx
+++ b/output/item/음향기기/2022-01-12_음향기기.xlsx
@@ -1378,7 +1378,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>241430</t>
+          <t>336000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>139000</t>
+          <t>128800</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>77220</t>
+          <t>77200</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>137300</t>
+          <t>137000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2815,22 +2815,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>스마텍 KF-BS300</t>
+          <t>브리츠 BZ-CM880</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23918822522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17833397931</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2391882/23918822522.20200827093000.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1783339/17833397931.20190304135417.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>69000</t>
+          <t>59770</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2846,12 +2846,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>스마텍</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>스마텍</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2881,22 +2881,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>브리츠 BZ-CM880</t>
+          <t>스마텍 KF-BS300</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17833397931</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23918822522</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1783339/17833397931.20190304135417.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2391882/23918822522.20200827093000.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>59770</t>
+          <t>69000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2912,12 +2912,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>스마텍</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>스마텍</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2947,22 +2947,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>브리츠 BR-M120</t>
+          <t>마샬 Kilburn II</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23044943490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16883144236</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2304494/23044943490.20200604115126.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1688314/16883144236.20201221151523.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>53000</t>
+          <t>365000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2978,12 +2978,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>마샬</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>마샬</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3013,22 +3013,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>마샬 Kilburn II</t>
+          <t>브리츠 BR-M120</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16883144236</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23044943490</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1688314/16883144236.20201221151523.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2304494/23044943490.20200604115126.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>365000</t>
+          <t>53000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>마샬</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>마샬</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3079,22 +3079,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>브리츠 BZ-NS15BT</t>
+          <t>하만카돈 ONYX STUDIO 7</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25524736524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28477173554</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2552473/25524736524.20210107175509.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2847717/28477173554.20211118164856.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>88900</t>
+          <t>232000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -3110,12 +3110,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>하만카돈</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>하만카돈</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3145,22 +3145,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>퓨전에프앤씨 아이노트 BT-V3</t>
+          <t>브리츠 BZ-NS15BT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13507466544</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25524736524</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1350746/13507466544.20211104161211.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2552473/25524736524.20210107175509.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>27900</t>
+          <t>88900</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -3176,12 +3176,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>아이노트</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>퓨전에프앤씨</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3211,22 +3211,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>하만카돈 ONYX STUDIO 7</t>
+          <t>퓨전에프앤씨 아이노트 BT-V3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28477173554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13507466544</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2847717/28477173554.20211118164856.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1350746/13507466544.20211104161211.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>248000</t>
+          <t>27900</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -3242,12 +3242,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>하만카돈</t>
+          <t>아이노트</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>하만카돈</t>
+          <t>퓨전에프앤씨</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3475,22 +3475,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>구글 네스트 미니 2세대 AI</t>
+          <t>구글 홈 미니 AI</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23772447522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19426005690</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2377244/23772447522.20201020154320.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1942600/19426005690.20200302093659.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>38880</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3504,7 +3504,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>구글</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr">
         <is>
           <t>구글</t>
@@ -3537,22 +3541,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>구글 홈 미니 AI</t>
+          <t>구글 네스트 미니 2세대 AI</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19426005690</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23772447522</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1942600/19426005690.20200302093659.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2377244/23772447522.20201020154320.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>38880</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3566,11 +3570,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>구글</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
           <t>구글</t>
@@ -3669,22 +3669,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>마샬 Uxbridge Voice</t>
+          <t>브리츠 BA-AC1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26319609525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21343116136</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2631960/26319609525.20210524145942.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2134311/21343116136.20191120102644.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>385000</t>
+          <t>69900</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3700,12 +3700,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>마샬</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>마샬</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3735,22 +3735,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>브리츠 BA-AC1</t>
+          <t>마샬 Stockwell II</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21343116136</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19806106798</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2134311/21343116136.20191120102644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1980610/19806106798.20201221152333.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>69900</t>
+          <t>290000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3766,12 +3766,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>마샬</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>마샬</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3801,22 +3801,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>마샬 Stockwell II</t>
+          <t>마샬 Uxbridge Voice</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19806106798</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26319609525</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1980610/19806106798.20201221152333.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2631960/26319609525.20210524145942.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>290000</t>
+          <t>385000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3867,22 +3867,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>퓨전에프앤씨 아이노트 BT-V7 Majestic</t>
+          <t>JBL Pulse4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27435557522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21760568585</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2743555/27435557522.20210604084727.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2176056/21760568585.20201221174312.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>99000</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3898,12 +3898,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>아이노트</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>퓨전에프앤씨</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3933,22 +3933,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>JBL Pulse4</t>
+          <t>퓨전에프앤씨 아이노트 BT-V7 Majestic</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21760568585</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27435557522</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2176056/21760568585.20201221174312.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2743555/27435557522.20210604084727.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>99000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3964,12 +3964,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>아이노트</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>퓨전에프앤씨</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4263,22 +4263,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>엠지텍 마제스티7</t>
+          <t>브리츠 BR-MEC20</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24171339522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23047406490</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2417133/24171339522.20200916102243.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2304740/23047406490.20200604164042.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>146700</t>
+          <t>99000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -4294,12 +4294,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>엠지텍</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>엠지텍</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4329,22 +4329,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>브리츠 BR-MEC20</t>
+          <t>엠지텍 마제스티7</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23047406490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24171339522</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2304740/23047406490.20200604164042.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2417133/24171339522.20200916102243.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>99000</t>
+          <t>145200</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -4360,12 +4360,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>엠지텍</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>엠지텍</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4461,22 +4461,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>브리츠 BA-RAB1 Plus</t>
+          <t>제네바 Classic/S</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25846286522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15902326516</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2584628/25846286522.20210203084341.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1590232/15902326516.20181031120842.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>49500</t>
+          <t>520000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4492,12 +4492,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>제네바</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>제네바</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4527,22 +4527,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>제네바 Classic/S</t>
+          <t>오아 아이브릭 OA-SP600</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15902326516</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11526227818</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1590232/15902326516.20181031120842.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1152622/11526227818.20210507113711.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>24900</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4558,12 +4558,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>제네바</t>
+          <t>오아</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>제네바</t>
+          <t>오아</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4659,22 +4659,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>오아 아이브릭 OA-SP600</t>
+          <t>브리츠 BA-RAB1 Plus</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11526227818</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25846286522</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1152622/11526227818.20210507113711.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2584628/25846286522.20210203084341.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>24900</t>
+          <t>49500</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4690,12 +4690,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>오아</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>오아</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4725,17 +4725,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>브리츠 BA-NK9</t>
+          <t>브리츠 BZ-TWS120</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29027890587</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11677064535</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2902789/29027890587.20210929101848.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1167706/11677064535.20171211120526.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4791,17 +4791,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>브리츠 BZ-TWS120</t>
+          <t>브리츠 BA-NK9</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11677064535</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29027890587</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1167706/11677064535.20171211120526.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2902789/29027890587.20210929101848.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>837350</t>
+          <t>837950</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>355890</t>
+          <t>355550</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -5253,22 +5253,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>마샬 Kilburn II</t>
+          <t>브리츠 BA-V5</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25770213522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12353056597</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2577021/25770213522.20210128104449.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1235305/12353056597.20170927082406.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>177000</t>
+          <t>27800</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -5284,12 +5284,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>마샬</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>마샬</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5319,22 +5319,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>브리츠 BA-V5</t>
+          <t>마샬 Kilburn II</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12353056597</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25770213522</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1235305/12353056597.20170927082406.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2577021/25770213522.20210128104449.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>27800</t>
+          <t>177000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -5350,12 +5350,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>마샬</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>마샬</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5583,22 +5583,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>삼성전자 JBL CHARGE5</t>
+          <t>브리츠 BA-MK11</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29001601586</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21774227550</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2900160/29001601586.20210929154321.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2177422/21774227550.20200117094711.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>189000</t>
+          <t>49700</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -5614,12 +5614,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5649,22 +5649,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>브리츠 BA-MK11</t>
+          <t>삼성전자 JBL CHARGE5</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21774227550</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29001601586</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2177422/21774227550.20200117094711.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2900160/29001601586.20210929154321.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>49700</t>
+          <t>189000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5680,12 +5680,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6111,22 +6111,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>브리츠 BZ-A20 Super moon</t>
+          <t>가온미디어 카카오프렌즈 카카오미니C</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11604170026</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20138496470</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1160417/11604170026.20170907111545.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2013849/20138496470.20190710102715.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>43000</t>
+          <t>72230</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -6142,12 +6142,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>카카오프렌즈</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>가온미디어</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -6177,22 +6177,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>가온미디어 카카오프렌즈 카카오미니C</t>
+          <t>ROEL 로엘전자 버스킹DJ</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20138496470</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15308359349</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2013849/20138496470.20190710102715.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1530835/15308359349.20180911101044.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>72230</t>
+          <t>176300</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -6208,12 +6208,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>카카오프렌즈</t>
+          <t>로엘전자</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>가온미디어</t>
+          <t>ROEL</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -6243,22 +6243,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ROEL 로엘전자 버스킹DJ</t>
+          <t>BOSE 보스 사운드링크 미니2</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15308359349</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20019351817</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1530835/15308359349.20180911101044.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2001935/20019351817.20190702111111.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>176300</t>
+          <t>94980</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -6274,12 +6274,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>로엘전자</t>
+          <t>보스</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>ROEL</t>
+          <t>BOSE</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -6309,22 +6309,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BOSE 보스 사운드링크 미니2</t>
+          <t>브리츠 BZ-A20 Super moon</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20019351817</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11604170026</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2001935/20019351817.20190702111111.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1160417/11604170026.20170907111545.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>94980</t>
+          <t>43000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -6340,12 +6340,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>보스</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>BOSE</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6573,22 +6573,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>몽크로스 MSDM-K1010</t>
+          <t>브리츠 BR-S50DB</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26336673525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21463257510</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2633667/26336673525.20210312170517.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2146325/21463257510.20200324134712.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>82890</t>
+          <t>350000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -6604,12 +6604,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>몽크로스</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>몽크로스</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6705,22 +6705,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>브리츠 BR-S50DB</t>
+          <t>몽크로스 MSDM-K1010</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21463257510</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26336673525</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2146325/21463257510.20200324134712.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2633667/26336673525.20210312170517.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>350000</t>
+          <t>82890</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -6736,12 +6736,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>몽크로스</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>몽크로스</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6969,22 +6969,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>브리츠 BA-CL2</t>
+          <t>휴라이즈 HR-SL200</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17424349784</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30415042618</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1742434/17424349784.20190211174435.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3041504/30415042618.20220112170732.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>61090</t>
+          <t>79000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -7000,12 +7000,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>휴라이즈</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>휴라이즈</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
